--- a/Other test files/Test 1.xlsx
+++ b/Other test files/Test 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justedujo-my.sharepoint.com/personal/maatieh_just_edu_jo/Documents/CS/Programming/Python Projects/GitHub Small Projects/Merger/Excel files for merge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://justedujo-my.sharepoint.com/personal/maatieh_just_edu_jo/Documents/CS/Programming/Python Projects/GitHub Small Projects/Excellecxe/Other test files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_B5C5B48C7EE62068BBE3B69F6E2AF57F616B67AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96337A60-D343-C54A-B302-76F0D2F1228B}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_B5C5B48C7EE62068BBE3B69F6E2AF57F616B67AD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821E5DC4-FB11-224C-9C64-961C1DE67CDA}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="4800" windowWidth="25600" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,12 +497,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C11792" sqref="A23:C11792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -518,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -529,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -551,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -562,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -573,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -595,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -606,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -628,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -639,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -650,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -661,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -672,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -683,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -694,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -705,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -716,7 +724,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -727,7 +735,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -742,6 +750,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
